--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Junior web developer</t>
   </si>
@@ -86,18 +86,12 @@
     <t>MySQL - base knowledge</t>
   </si>
   <si>
-    <t xml:space="preserve">  node.js</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Jquery</t>
   </si>
   <si>
     <t xml:space="preserve">  Ajax</t>
   </si>
   <si>
-    <t xml:space="preserve">  JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">  GSAP</t>
   </si>
   <si>
@@ -135,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">    All in One SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Node.js</t>
   </si>
 </sst>
 </file>
@@ -299,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,6 +334,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -366,15 +375,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -689,31 +689,31 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="13"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
@@ -722,28 +722,28 @@
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
@@ -751,20 +751,20 @@
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="13"/>
       <c r="F7" s="4"/>
     </row>
@@ -774,26 +774,26 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="16"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -815,11 +815,11 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="12"/>
       <c r="E12" s="11"/>
       <c r="F12" s="4"/>
@@ -828,21 +828,21 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="25"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="12"/>
       <c r="F16" s="4"/>
     </row>
@@ -850,320 +850,292 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="18"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="18"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="18"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="18"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="18"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="28"/>
+      <c r="B23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="32"/>
       <c r="D23" s="18"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="28"/>
+      <c r="B24" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="32"/>
       <c r="D24" s="18"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="28"/>
+      <c r="B25" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="32"/>
       <c r="D25" s="18"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="28"/>
+      <c r="B26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="33"/>
       <c r="D26" s="18"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="29"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="18"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="32"/>
       <c r="D28" s="18"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="28"/>
+      <c r="B29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="32"/>
       <c r="D29" s="18"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="28"/>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="18"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="31" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="31" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="31" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="31" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="19"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="35"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="19"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="B44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="21"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="19"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="D53" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
+  <mergeCells count="23">
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A7:D7"/>

--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Junior web developer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Projects:    
 </t>
@@ -132,13 +128,25 @@
   </si>
   <si>
     <t xml:space="preserve">  Node.js</t>
+  </si>
+  <si>
+    <t>Berehulenko Roman</t>
+  </si>
+  <si>
+    <t>junior web developer</t>
+  </si>
+  <si>
+    <t>http://rombt.free.nf/</t>
+  </si>
+  <si>
+    <t>http://impexmash.free.nf/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,16 +183,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,6 +249,26 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Euphemia"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Euphemia"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -296,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -305,9 +323,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -321,64 +336,70 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -662,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -675,7 +696,7 @@
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="5" customWidth="1"/>
     <col min="8" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="5.140625" style="5" customWidth="1"/>
@@ -689,471 +710,492 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="13"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:14" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" s="4"/>
+      <c r="H13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="11"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="15"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="15"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="15"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="15"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="15"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="12"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="15"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="15"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="15"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="15"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="18"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="15"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="15"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="16"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="20"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="16"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="18"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="18"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="19"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="35"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="B42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="16"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="21"/>
+      <c r="D44" s="19"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="D50" s="19"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="22"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
+  <mergeCells count="27">
+    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H7:M9"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H3:M6"/>
-    <mergeCell ref="G8:J9"/>
-    <mergeCell ref="G18:J19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="A14:B14" r:id="rId2" display="GitHub"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A12:B12" r:id="rId2" display="GitHub"/>
+    <hyperlink ref="H13:J13" r:id="rId3" display="http://rombt.free.nf/"/>
+    <hyperlink ref="H16:J16" r:id="rId4" display="http://impexmash.free.nf/"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -686,7 +686,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Projects:    
 </t>
@@ -79,12 +79,6 @@
     <t>Gulp</t>
   </si>
   <si>
-    <t>MySQL - base knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jquery</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Ajax</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t xml:space="preserve">    Contact form 7</t>
   </si>
   <si>
-    <t>SEO  - base knowledge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    All in One SEO</t>
   </si>
   <si>
@@ -140,13 +131,67 @@
   </si>
   <si>
     <t>http://impexmash.free.nf/</t>
+  </si>
+  <si>
+    <t>horizontal-menus</t>
+  </si>
+  <si>
+    <t>Figma</t>
+  </si>
+  <si>
+    <t>Base knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PhotoShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Swiper.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class-tgm-plugin-activation</t>
+  </si>
+  <si>
+    <t>Semantic HTML5 page markup</t>
+  </si>
+  <si>
+    <t>JavaScript:</t>
+  </si>
+  <si>
+    <t>jQuery, Ajax, and Swiper.js for sliders</t>
+  </si>
+  <si>
+    <t>Integration of the completed markup into WordPress</t>
+  </si>
+  <si>
+    <t>Post Types: ACF, add_meta_box()</t>
+  </si>
+  <si>
+    <t>Custom theme functionality in a core plugin</t>
+  </si>
+  <si>
+    <t>For each custom post type, the field values can be edited directly on the post page (Ajax, jQuery).</t>
+  </si>
+  <si>
+    <t>WooCommerce: The theme is fully integrated with WooCommerce.</t>
+  </si>
+  <si>
+    <t>Redux: The theme offers many options, including typography settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  jQuery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +313,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Euphemia"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -314,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,50 +418,85 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -683,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -697,471 +792,696 @@
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="5" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="5"/>
+    <col min="7" max="7" width="6" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="5.140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="5" customWidth="1"/>
     <col min="15" max="15" width="1.5703125" style="5" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="12"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="9"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="12"/>
       <c r="F7" s="4"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="F8" s="4"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="13"/>
       <c r="F9" s="4"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:14" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="26"/>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F13" s="4"/>
-      <c r="H13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="G13" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="11"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="15"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="F15" s="49"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="15"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+      <c r="F16" s="49"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="15"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+    </row>
+    <row r="18" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="15"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+    </row>
+    <row r="19" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="15"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="21"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+    </row>
+    <row r="20" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="29"/>
       <c r="D20" s="15"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="21"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+    </row>
+    <row r="21" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="29"/>
       <c r="D21" s="15"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="21"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+    </row>
+    <row r="22" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="29"/>
       <c r="D22" s="15"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="23"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+    </row>
+    <row r="23" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="41"/>
       <c r="D23" s="15"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="45"/>
+    </row>
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="37"/>
       <c r="D24" s="15"/>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="21"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="15"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="21"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+    </row>
+    <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="29"/>
       <c r="D26" s="15"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="17"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+    </row>
+    <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="29"/>
       <c r="D27" s="15"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+    </row>
+    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="42"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="O28" s="45"/>
+    </row>
+    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="F29" s="4"/>
+      <c r="O29" s="45"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="22"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="16"/>
+    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="C37" s="16"/>
-      <c r="D37" s="20"/>
+      <c r="D37" s="16"/>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="16"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="20"/>
       <c r="D38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="16"/>
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="16"/>
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
+    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="16"/>
+    <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="41"/>
       <c r="D42" s="16"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D48" s="19"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D50" s="19"/>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="4"/>
     </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="G20:J21"/>
+  <mergeCells count="44">
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="H19:O20"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A10:C10"/>
@@ -1170,32 +1490,22 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="H7:M9"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>
     <hyperlink ref="A12:B12" r:id="rId2" display="GitHub"/>
-    <hyperlink ref="H13:J13" r:id="rId3" display="http://rombt.free.nf/"/>
-    <hyperlink ref="H16:J16" r:id="rId4" display="http://impexmash.free.nf/"/>
+    <hyperlink ref="G13:J13" r:id="rId3" display="http://rombt.free.nf/"/>
+    <hyperlink ref="H28:J28" r:id="rId4" display="http://impexmash.free.nf/"/>
+    <hyperlink ref="H32:J32" r:id="rId5" display="horizontal-menus"/>
+    <hyperlink ref="G13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conspectus\Фриланс\Резюме\level_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\conspectus\Фриланс\Резюме\level_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Projects:    
 </t>
@@ -138,9 +138,6 @@
     <t xml:space="preserve">  Swiper.js</t>
   </si>
   <si>
-    <t>Semantic HTML5 page markup</t>
-  </si>
-  <si>
     <t>JavaScript:</t>
   </si>
   <si>
@@ -197,12 +194,39 @@
   </si>
   <si>
     <t>HTML &amp; CSS (LESS, SCSS)</t>
+  </si>
+  <si>
+    <t>https://github.com/Rombt/gulp-assembly</t>
+  </si>
+  <si>
+    <t>Semantic page markup (html, less)</t>
+  </si>
+  <si>
+    <t>Two working modes: development and production</t>
+  </si>
+  <si>
+    <t>Easy creation and modification of page grids</t>
+  </si>
+  <si>
+    <t>Font transformation to WOFF and WOFF2 formats, including font file creation</t>
+  </si>
+  <si>
+    <t>Image optimization to WebP format with JPEG fallback for older browsers</t>
+  </si>
+  <si>
+    <t>Optimization and compression of styles and JavaScript into a single file</t>
+  </si>
+  <si>
+    <t>SVG sprite creation, ZIP archive creation, FTP deployment to hosting</t>
+  </si>
+  <si>
+    <t>And many other features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -453,76 +477,82 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -833,30 +863,30 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="12"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -866,29 +896,29 @@
       <c r="D4" s="14"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="9"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -905,389 +935,397 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="12"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
+      <c r="G7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="13"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:16" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="35"/>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F13" s="4"/>
-      <c r="G13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
+      <c r="G13" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="11"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="15"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="15"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="15"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="15"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="15"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="24"/>
-    </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="15"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="H19" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+    </row>
+    <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="15"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-    </row>
-    <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="15"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
+      <c r="G21" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="15"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="15"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="24"/>
-    </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="26"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="23"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-    </row>
-    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="26"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="26"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-    </row>
-    <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="26"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-    </row>
-    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="24"/>
+      <c r="H27" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="O28" s="24"/>
-    </row>
-    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="25"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="24"/>
-      <c r="O29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
@@ -1296,7 +1334,17 @@
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
@@ -1305,209 +1353,261 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="F32" s="4"/>
-      <c r="H32" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="F33" s="4"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="24"/>
+      <c r="O33" s="24"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="16"/>
       <c r="F34" s="4"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="G36" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="24"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="16"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="31" t="s">
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="32" t="s">
+      <c r="G40" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31" t="s">
+      <c r="G41" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="18"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+    <row r="44" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="11"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="47" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="6:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F59" s="4"/>
     </row>
+    <row r="60" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F63" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="H28:J28"/>
+  <mergeCells count="53">
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="H27:O28"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="G10:J11"/>
     <mergeCell ref="H3:L4"/>
     <mergeCell ref="A12:B12"/>
@@ -1517,44 +1617,32 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="G7:N9"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G51:J51"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="H19:O20"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H16:O16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>
     <hyperlink ref="A12:B12" r:id="rId2" display="GitHub"/>
-    <hyperlink ref="G13:J13" r:id="rId3" display="http://rombt.free.nf/"/>
-    <hyperlink ref="H28:J28" r:id="rId4" display="http://impexmash.free.nf/"/>
-    <hyperlink ref="H32:J32" r:id="rId5" display="horizontal-menus"/>
+    <hyperlink ref="G21:J21" r:id="rId3" display="http://rombt.free.nf/"/>
+    <hyperlink ref="G21" r:id="rId4"/>
+    <hyperlink ref="G13:J13" r:id="rId5" display="http://rombt.free.nf/"/>
     <hyperlink ref="G13" r:id="rId6"/>
+    <hyperlink ref="G36:J36" r:id="rId7" display="http://impexmash.free.nf/"/>
+    <hyperlink ref="G31:J31" r:id="rId8" display="horizontal-menus"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t xml:space="preserve">Projects:    
 </t>
@@ -141,19 +141,10 @@
     <t>JavaScript:</t>
   </si>
   <si>
-    <t>jQuery, Ajax, and Swiper.js for sliders</t>
-  </si>
-  <si>
     <t>Integration of the completed markup into WordPress</t>
   </si>
   <si>
-    <t>Post Types: ACF, add_meta_box()</t>
-  </si>
-  <si>
     <t>Custom theme functionality in a core plugin</t>
-  </si>
-  <si>
-    <t>For each custom post type, the field values can be edited directly on the post page (Ajax, jQuery).</t>
   </si>
   <si>
     <t>WooCommerce: The theme is fully integrated with WooCommerce.</t>
@@ -199,9 +190,6 @@
     <t>https://github.com/Rombt/gulp-assembly</t>
   </si>
   <si>
-    <t>Semantic page markup (html, less)</t>
-  </si>
-  <si>
     <t>Two working modes: development and production</t>
   </si>
   <si>
@@ -221,13 +209,126 @@
   </si>
   <si>
     <t>And many other features</t>
+  </si>
+  <si>
+    <t>Managing the behavior and state of horizontal menus on the page</t>
+  </si>
+  <si>
+    <t>Overflow protection, responsive, animation, easy addition of additional classes to menu items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> js, less, GSAP, OOP</t>
+  </si>
+  <si>
+    <r>
+      <t>For each custom post type, the field values can be edited directly on the post page (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ajax, jQuery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Post Types: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACF, add_meta_box()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jQuery, Ajax, and Swiper.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for sliders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Semantic page markup (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>html, less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  WebPack</t>
+  </si>
+  <si>
+    <t>node.js, GULP, WebPac, OOP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +470,24 @@
       <color rgb="FFFF0000"/>
       <name val="Euphemia"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,6 +672,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -835,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -944,7 +1069,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="4"/>
       <c r="G7" s="39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
@@ -1022,7 +1147,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F13" s="4"/>
       <c r="G13" s="47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="49"/>
@@ -1034,14 +1159,14 @@
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="11"/>
       <c r="F14" s="4"/>
       <c r="H14" s="50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
@@ -1053,13 +1178,13 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="F15" s="4"/>
       <c r="H15" s="50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
@@ -1077,7 +1202,7 @@
       <c r="D16" s="15"/>
       <c r="F16" s="4"/>
       <c r="H16" s="50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
@@ -1095,7 +1220,7 @@
       <c r="D17" s="15"/>
       <c r="F17" s="4"/>
       <c r="H17" s="50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -1107,13 +1232,13 @@
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="15"/>
       <c r="F18" s="4"/>
       <c r="H18" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
@@ -1131,7 +1256,7 @@
       <c r="D19" s="15"/>
       <c r="F19" s="4"/>
       <c r="H19" s="50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
@@ -1148,7 +1273,7 @@
       <c r="D20" s="15"/>
       <c r="F20" s="4"/>
       <c r="H20" s="50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
@@ -1164,16 +1289,15 @@
       <c r="C21" s="46"/>
       <c r="D21" s="15"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
+      <c r="H21" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
@@ -1181,18 +1305,17 @@
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="15"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="32" t="s">
@@ -1202,12 +1325,10 @@
       <c r="D23" s="15"/>
       <c r="F23" s="26"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>38</v>
-      </c>
+      <c r="H23" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="51"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
@@ -1223,10 +1344,12 @@
       <c r="D24" s="23"/>
       <c r="F24" s="26"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="51"/>
+      <c r="H24" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="J24" s="51"/>
       <c r="K24" s="51"/>
       <c r="L24" s="51"/>
@@ -1243,15 +1366,15 @@
       <c r="F25" s="26"/>
       <c r="G25" s="4"/>
       <c r="H25" s="51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
@@ -1262,15 +1385,15 @@
       <c r="F26" s="26"/>
       <c r="G26" s="4"/>
       <c r="H26" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
       <c r="K26" s="51"/>
       <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -1278,18 +1401,18 @@
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
@@ -1298,8 +1421,10 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="53"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="53" t="s">
+        <v>64</v>
+      </c>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
@@ -1316,9 +1441,7 @@
       <c r="D29" s="16"/>
       <c r="F29" s="4"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="53" t="s">
-        <v>43</v>
-      </c>
+      <c r="H29" s="53"/>
       <c r="I29" s="53"/>
       <c r="J29" s="53"/>
       <c r="K29" s="53"/>
@@ -1336,7 +1459,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="25"/>
       <c r="H30" s="53" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
@@ -1353,23 +1476,35 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
@@ -1377,9 +1512,15 @@
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="24"/>
-      <c r="O33" s="24"/>
+      <c r="H33" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
@@ -1389,6 +1530,16 @@
       <c r="D34" s="16"/>
       <c r="F34" s="4"/>
       <c r="G34" s="24"/>
+      <c r="H34" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
@@ -1398,6 +1549,15 @@
       <c r="D35" s="44"/>
       <c r="F35" s="4"/>
       <c r="G35" s="24"/>
+      <c r="H35" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
@@ -1406,17 +1566,16 @@
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="44" t="s">
@@ -1425,9 +1584,17 @@
       <c r="C37" s="44"/>
       <c r="D37" s="16"/>
       <c r="F37" s="4"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+      <c r="G37" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="24"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
@@ -1445,80 +1612,88 @@
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="18"/>
+      <c r="G42" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="11"/>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="18"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="11"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+    <row r="46" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="6:14" x14ac:dyDescent="0.3">
@@ -1527,23 +1702,23 @@
     <row r="50" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="6:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F51" s="4"/>
-      <c r="G51" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="6:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="6:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G52" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="6:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="6:14" x14ac:dyDescent="0.3">
@@ -1576,10 +1751,18 @@
     <row r="63" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F63" s="4"/>
     </row>
+    <row r="64" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F64" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="59">
     <mergeCell ref="H20:N20"/>
-    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H21:N21"/>
     <mergeCell ref="H19:N19"/>
     <mergeCell ref="H16:N16"/>
     <mergeCell ref="H15:N15"/>
@@ -1587,16 +1770,16 @@
     <mergeCell ref="H18:N18"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="H27:O28"/>
-    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="H28:O29"/>
     <mergeCell ref="H30:O30"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="G37:N37"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
@@ -1621,26 +1804,27 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="H14:N14"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G52:J52"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>
     <hyperlink ref="A12:B12" r:id="rId2" display="GitHub"/>
-    <hyperlink ref="G21:J21" r:id="rId3" display="http://rombt.free.nf/"/>
-    <hyperlink ref="G21" r:id="rId4"/>
+    <hyperlink ref="G22:J22" r:id="rId3" display="http://rombt.free.nf/"/>
+    <hyperlink ref="G22" r:id="rId4"/>
     <hyperlink ref="G13:J13" r:id="rId5" display="http://rombt.free.nf/"/>
     <hyperlink ref="G13" r:id="rId6"/>
-    <hyperlink ref="G36:J36" r:id="rId7" display="http://impexmash.free.nf/"/>
-    <hyperlink ref="G31:J31" r:id="rId8" display="horizontal-menus"/>
+    <hyperlink ref="G37:J37" r:id="rId7" display="http://impexmash.free.nf/"/>
+    <hyperlink ref="G32:J32" r:id="rId8" display="horizontal-menus"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\conspectus\Фриланс\Резюме\level_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conspectus\Фриланс\Резюме\level_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -402,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,113 +702,111 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1092,11 +1090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:N50"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
@@ -1116,77 +1114,77 @@
     <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="E1" s="19"/>
       <c r="F1" s="29"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="19"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="20"/>
       <c r="F3" s="29"/>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="12" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="21"/>
       <c r="F4" s="29"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:16" ht="18" customHeight="1">
+      <c r="A5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="21"/>
       <c r="F5" s="29"/>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="21"/>
       <c r="F6" s="29"/>
       <c r="H6" s="6"/>
@@ -1196,97 +1194,97 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+    <row r="7" spans="1:16" ht="3" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="20"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A8" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="19"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-    </row>
-    <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+    </row>
+    <row r="9" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="56"/>
+      <c r="D9" s="71" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A10" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="E10" s="22"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="16"/>
       <c r="E11" s="23"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1294,183 +1292,183 @@
       <c r="E12" s="23"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:16">
+      <c r="B13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="23"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="64" t="s">
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1">
+      <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="3"/>
       <c r="E14" s="19"/>
       <c r="F14" s="29"/>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="25"/>
       <c r="P14" s="32"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="3"/>
       <c r="E15" s="19"/>
       <c r="F15" s="29"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="32"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64" t="s">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B16" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="3"/>
       <c r="E16" s="19"/>
       <c r="F16" s="29"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="32"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64" t="s">
+    <row r="17" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="3"/>
       <c r="E17" s="19"/>
       <c r="F17" s="29"/>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
       <c r="P17" s="32"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3"/>
       <c r="E18" s="19"/>
       <c r="F18" s="29"/>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="P18" s="32"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="66" t="s">
+    <row r="19" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="66"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="3"/>
       <c r="E19" s="19"/>
       <c r="F19" s="29"/>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64" t="s">
+    <row r="20" spans="2:16" ht="13.5" customHeight="1">
+      <c r="B20" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="3"/>
       <c r="E20" s="19"/>
       <c r="F20" s="29"/>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64" t="s">
+    <row r="21" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B21" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="3"/>
       <c r="E21" s="19"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
@@ -1479,18 +1477,18 @@
       <c r="E22" s="19"/>
       <c r="F22" s="8"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1">
       <c r="B23" s="13" t="s">
         <v>10</v>
       </c>
@@ -1502,17 +1500,17 @@
       <c r="H23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
@@ -1521,38 +1519,38 @@
       <c r="E24" s="19"/>
       <c r="F24" s="8"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="65" t="s">
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B25" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="19"/>
       <c r="F25" s="8"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="15.75" customHeight="1">
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
@@ -1561,18 +1559,18 @@
       <c r="E26" s="19"/>
       <c r="F26" s="8"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1">
       <c r="B27" s="13" t="s">
         <v>15</v>
       </c>
@@ -1581,18 +1579,18 @@
       <c r="E27" s="19"/>
       <c r="F27" s="29"/>
       <c r="G27" s="32"/>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
@@ -1601,16 +1599,16 @@
       <c r="E28" s="19"/>
       <c r="F28" s="29"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" customHeight="1">
       <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
@@ -1619,18 +1617,18 @@
       <c r="E29" s="19"/>
       <c r="F29" s="29"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" customHeight="1">
       <c r="B30" s="13" t="s">
         <v>13</v>
       </c>
@@ -1639,387 +1637,387 @@
       <c r="E30" s="19"/>
       <c r="F30" s="29"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-    </row>
-    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46" t="s">
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1">
+      <c r="B31" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="19"/>
       <c r="F31" s="29"/>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-    </row>
-    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1">
+      <c r="B32" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="19"/>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="46" t="s">
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="B33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="13"/>
       <c r="E33" s="19"/>
       <c r="F33" s="29"/>
       <c r="G33" s="32"/>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="19"/>
       <c r="F34" s="29"/>
       <c r="G34" s="32"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1">
+      <c r="B35" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="19"/>
       <c r="F35" s="29"/>
       <c r="G35" s="32"/>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="46" t="s">
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1">
+      <c r="B36" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="19"/>
       <c r="F36" s="29"/>
       <c r="G36" s="32"/>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46" t="s">
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1">
+      <c r="B37" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="19"/>
       <c r="F37" s="29"/>
-      <c r="G37" s="57" t="s">
+      <c r="G37" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
       <c r="O37" s="32"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
+      <c r="B38" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="19"/>
       <c r="F38" s="29"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
       <c r="O38" s="32"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
+      <c r="B39" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="19"/>
       <c r="F39" s="29"/>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="D40" s="14"/>
       <c r="E40" s="19"/>
       <c r="F40" s="29"/>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-    </row>
-    <row r="41" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="36" t="s">
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+    </row>
+    <row r="41" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A41" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="19"/>
       <c r="F41" s="29"/>
       <c r="G41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="E42" s="19"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="47" t="s">
+    <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1">
+      <c r="B43" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="19"/>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="47" t="s">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
+      <c r="B44" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="19"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="39" t="s">
+      <c r="H44" s="64"/>
+      <c r="I44" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="19"/>
       <c r="F45" s="29"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="E46" s="19"/>
       <c r="F46" s="29"/>
       <c r="G46" s="28"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-    </row>
-    <row r="47" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36" t="s">
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+    </row>
+    <row r="47" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A47" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="16"/>
       <c r="E47" s="19"/>
       <c r="F47" s="29"/>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="40" t="s">
+      <c r="H47" s="64"/>
+      <c r="I47" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="E48" s="19"/>
       <c r="F48" s="29"/>
-      <c r="H48" s="38" t="s">
+      <c r="H48" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A49" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="19"/>
       <c r="F49" s="29"/>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-    </row>
-    <row r="50" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+    </row>
+    <row r="50" spans="1:15" ht="27" customHeight="1">
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="19"/>
       <c r="F50" s="29"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="19"/>
       <c r="F51" s="29"/>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42" t="s">
+      <c r="H51" s="67"/>
+      <c r="I51" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-    </row>
-    <row r="52" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+    </row>
+    <row r="52" spans="1:15" ht="8.25" customHeight="1">
       <c r="E52" s="19"/>
       <c r="F52" s="34"/>
       <c r="G52" s="26"/>
@@ -2031,7 +2029,7 @@
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="26" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2048,47 +2046,79 @@
       <c r="N53" s="24"/>
       <c r="O53" s="24"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="F54" s="29"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="F55" s="29"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="F56" s="29"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="F61" s="29"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="F62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H33:O34"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="I47:O47"/>
+    <mergeCell ref="A49:D51"/>
+    <mergeCell ref="H45:O46"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="H49:N50"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="I44:O44"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="G37:N37"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2105,50 +2135,18 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I44:O44"/>
-    <mergeCell ref="H45:O46"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="H49:N50"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="I47:O47"/>
-    <mergeCell ref="A49:D51"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H33:O34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>
@@ -2159,7 +2157,7 @@
     <hyperlink ref="G13" r:id="rId6"/>
     <hyperlink ref="G37:J37" r:id="rId7" display="http://impexmash.free.nf/"/>
     <hyperlink ref="G31:J31" r:id="rId8" display="horizontal-menus"/>
-    <hyperlink ref="D9" r:id="rId9" display="LinkiDin"/>
+    <hyperlink ref="D9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conspectus\Фриланс\Резюме\level_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\conspectus\Фриланс\Резюме\level_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,9 +121,6 @@
   <si>
     <t xml:space="preserve"> 
 </t>
-  </si>
-  <si>
-    <t>HTML &amp; CSS (LESS, SCSS)</t>
   </si>
   <si>
     <t>https://github.com/Rombt/gulp-assembly</t>
@@ -243,16 +240,7 @@
     <t>Берегуленко Роман</t>
   </si>
   <si>
-    <t>Кропивницкий</t>
-  </si>
-  <si>
     <t>junior веб-разробник</t>
-  </si>
-  <si>
-    <t>Україна,</t>
-  </si>
-  <si>
-    <t>Навички:</t>
   </si>
   <si>
     <t>Веб-розробник, спеціалізуюсь на верстці сайтів та створенні wordpress тем. Маю досвід створення плагінів із кастомною функціональністю</t>
@@ -397,12 +385,24 @@
   <si>
     <t>Кастомний функціонал винесено core plugin теми</t>
   </si>
+  <si>
+    <t>Ukraine,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kropyvnytskyi </t>
+  </si>
+  <si>
+    <t>Telegram: @RombtNet</t>
+  </si>
+  <si>
+    <t>Skills &amp; Tools:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +583,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -628,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -654,9 +661,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -702,111 +706,119 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1091,54 +1103,54 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="24"/>
-    <col min="12" max="12" width="5.140625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="6" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="24"/>
+    <col min="6" max="6" width="2.85546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23"/>
+    <col min="12" max="12" width="5.140625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="6" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="E1" s="19"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A2" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A3" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="29"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E1" s="18"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="28"/>
       <c r="H3" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
@@ -1146,13 +1158,13 @@
       <c r="L3" s="55"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="29"/>
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="28"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -1160,33 +1172,33 @@
       <c r="L4" s="55"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
       <c r="D5" s="57"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="29"/>
-      <c r="H5" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="28"/>
+      <c r="H5" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="28"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1194,931 +1206,900 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="3" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A8" s="58" t="s">
+    <row r="7" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-    </row>
-    <row r="9" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="D9" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="54" t="s">
+      <c r="B10" s="56"/>
+      <c r="D10" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1">
-      <c r="B14" s="43" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="29"/>
-      <c r="H14" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="32"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="43" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="28"/>
+      <c r="H14" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="31"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="29"/>
-      <c r="H15" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="28"/>
+      <c r="H15" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="31"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="29"/>
-      <c r="H16" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="32"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B17" s="43" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="28"/>
+      <c r="H16" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="31"/>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="29"/>
-      <c r="H17" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="32"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1">
+      <c r="E17" s="18"/>
+      <c r="F17" s="28"/>
+      <c r="H17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="31"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="29"/>
-      <c r="H18" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B19" s="44" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="28"/>
+      <c r="H18" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="31"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="29"/>
-      <c r="H19" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="25"/>
-    </row>
-    <row r="20" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B20" s="43" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="28"/>
+      <c r="H19" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="29"/>
-      <c r="H20" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="25"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B21" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="43"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="28"/>
+      <c r="H20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="24"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="61"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="46" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1">
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B23" s="13" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B24" s="13" t="s">
+      <c r="I23" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B25" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="19"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B26" s="13" t="s">
+      <c r="G25" s="28"/>
+      <c r="H25" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="19"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B27" s="13" t="s">
+      <c r="G26" s="28"/>
+      <c r="H26" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B29" s="13" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1">
-      <c r="B30" s="13" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-    </row>
-    <row r="31" spans="2:16" ht="15" customHeight="1">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="36" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-    </row>
-    <row r="32" spans="2:16" ht="15" customHeight="1">
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
-      <c r="E32" s="19"/>
-      <c r="H32" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="E32" s="18"/>
+      <c r="H32" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
-      <c r="B35" s="63" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1">
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1">
+      <c r="E36" s="18"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="36" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
-      <c r="B38" s="63" t="s">
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="29"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="32"/>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
-      <c r="B39" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="29"/>
-      <c r="H39" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="D40" s="14"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="29"/>
-      <c r="H40" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-    </row>
-    <row r="41" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A41" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="29"/>
+      <c r="H38" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="28"/>
+      <c r="H39" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="28"/>
+      <c r="H40" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E42" s="19"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1">
-      <c r="B43" s="61" t="s">
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="18"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="29"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1">
-      <c r="B44" s="61" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="42"/>
+      <c r="I44" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
-      <c r="E46" s="19"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-    </row>
-    <row r="47" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A47" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="64" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="18"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+    </row>
+    <row r="47" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="42"/>
+      <c r="I47" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="18"/>
+      <c r="F48" s="28"/>
+      <c r="H48" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="28"/>
+      <c r="H49" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+    </row>
+    <row r="50" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="28"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="64"/>
-      <c r="I47" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
-      <c r="E48" s="19"/>
-      <c r="F48" s="29"/>
-      <c r="H48" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A49" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="29"/>
-      <c r="H49" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
-    </row>
-    <row r="50" spans="1:15" ht="27" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="29"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="67"/>
-      <c r="I51" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68"/>
-    </row>
-    <row r="52" spans="1:15" ht="8.25" customHeight="1">
-      <c r="E52" s="19"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-    </row>
-    <row r="53" spans="1:15" s="26" customFormat="1">
+      <c r="H51" s="38"/>
+      <c r="I51" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+    </row>
+    <row r="52" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="18"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+    </row>
+    <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="F56" s="29"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="F57" s="29"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="F61" s="29"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="F62" s="29"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F61" s="28"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="I47:O47"/>
-    <mergeCell ref="A49:D51"/>
-    <mergeCell ref="H45:O46"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="H49:N50"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="I44:O44"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H33:O34"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
     <mergeCell ref="G37:N37"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2135,29 +2116,61 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H33:O34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="I44:O44"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="I47:O47"/>
+    <mergeCell ref="A49:D51"/>
+    <mergeCell ref="H45:O46"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="H49:N50"/>
+    <mergeCell ref="H48:O48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9:B9" r:id="rId2" display="GitHub"/>
-    <hyperlink ref="G21:J21" r:id="rId3" display="http://rombt.free.nf/"/>
-    <hyperlink ref="G21" r:id="rId4"/>
-    <hyperlink ref="G13:J13" r:id="rId5" display="http://rombt.free.nf/"/>
-    <hyperlink ref="G13" r:id="rId6"/>
-    <hyperlink ref="G37:J37" r:id="rId7" display="http://impexmash.free.nf/"/>
-    <hyperlink ref="G31:J31" r:id="rId8" display="horizontal-menus"/>
-    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="G21:J21" r:id="rId1" display="http://rombt.free.nf/"/>
+    <hyperlink ref="G21" r:id="rId2"/>
+    <hyperlink ref="G13:J13" r:id="rId3" display="http://rombt.free.nf/"/>
+    <hyperlink ref="G13" r:id="rId4"/>
+    <hyperlink ref="G37:J37" r:id="rId5" display="http://impexmash.free.nf/"/>
+    <hyperlink ref="G31:J31" r:id="rId6" display="horizontal-menus"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A10:B10" r:id="rId8" display="GitHub"/>
+    <hyperlink ref="D10" r:id="rId9" display="LinkiDin"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -240,9 +240,6 @@
     <t>Берегуленко Роман</t>
   </si>
   <si>
-    <t>junior веб-разробник</t>
-  </si>
-  <si>
     <t>Веб-розробник, спеціалізуюсь на верстці сайтів та створенні wordpress тем. Маю досвід створення плагінів із кастомною функціональністю</t>
   </si>
   <si>
@@ -397,12 +394,15 @@
   <si>
     <t>Skills &amp; Tools:</t>
   </si>
+  <si>
+    <t>junior веб-розробник</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,9 +709,101 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -724,105 +816,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -840,7 +840,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -878,7 +878,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -950,7 +950,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1103,10 +1103,10 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+      <selection activeCell="H15" sqref="H15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
@@ -1126,77 +1126,77 @@
     <col min="16" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="E1" s="18"/>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="18"/>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="19"/>
       <c r="F3" s="28"/>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="12" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="20"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:16" ht="18" customHeight="1">
+      <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="20"/>
       <c r="F5" s="28"/>
-      <c r="H5" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="H5" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="20"/>
       <c r="F6" s="28"/>
       <c r="H6" s="6"/>
@@ -1206,282 +1206,282 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+    <row r="7" spans="1:16" ht="3" customHeight="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="19"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-    </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="G7" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1">
+      <c r="A8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="18"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A10" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="52"/>
+      <c r="D10" s="35" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="G10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="E11" s="21"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="15"/>
       <c r="E12" s="22"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="22"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1">
+      <c r="B14" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="3"/>
       <c r="E14" s="18"/>
       <c r="F14" s="28"/>
-      <c r="H14" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="H14" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="24"/>
       <c r="P14" s="31"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="3"/>
       <c r="E15" s="18"/>
       <c r="F15" s="28"/>
-      <c r="H15" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
+      <c r="H15" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
       <c r="P15" s="31"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61" t="s">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="3"/>
       <c r="E16" s="18"/>
       <c r="F16" s="28"/>
-      <c r="H16" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="H16" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="31"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+    <row r="17" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="3"/>
       <c r="E17" s="18"/>
       <c r="F17" s="28"/>
-      <c r="H17" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="H17" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+    <row r="18" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B18" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="3"/>
       <c r="E18" s="18"/>
       <c r="F18" s="28"/>
-      <c r="H18" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="H18" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="31"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63" t="s">
+    <row r="19" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="3"/>
       <c r="E19" s="18"/>
       <c r="F19" s="28"/>
-      <c r="H19" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
+      <c r="H19" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61" t="s">
+    <row r="20" spans="2:16" ht="13.5" customHeight="1">
+      <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
       <c r="F20" s="28"/>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61" t="s">
+    <row r="21" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B21" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="3"/>
       <c r="E21" s="18"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
@@ -1490,18 +1490,18 @@
       <c r="E22" s="18"/>
       <c r="F22" s="8"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>10</v>
       </c>
@@ -1513,17 +1513,17 @@
       <c r="H23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
@@ -1532,38 +1532,38 @@
       <c r="E24" s="18"/>
       <c r="F24" s="8"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62" t="s">
+      <c r="H24" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="18"/>
       <c r="F25" s="8"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="H25" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="15.75" customHeight="1">
       <c r="B26" s="12" t="s">
         <v>14</v>
       </c>
@@ -1572,18 +1572,18 @@
       <c r="E26" s="18"/>
       <c r="F26" s="8"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1">
       <c r="B27" s="12" t="s">
         <v>15</v>
       </c>
@@ -1592,18 +1592,18 @@
       <c r="E27" s="18"/>
       <c r="F27" s="28"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
@@ -1612,16 +1612,16 @@
       <c r="E28" s="18"/>
       <c r="F28" s="28"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" customHeight="1">
       <c r="B29" s="12" t="s">
         <v>12</v>
       </c>
@@ -1630,18 +1630,18 @@
       <c r="E29" s="18"/>
       <c r="F29" s="28"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" customHeight="1">
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
@@ -1650,387 +1650,387 @@
       <c r="E30" s="18"/>
       <c r="F30" s="28"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-    </row>
-    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45" t="s">
+      <c r="H30" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1">
+      <c r="B31" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="18"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-    </row>
-    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1">
+      <c r="B32" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="18"/>
-      <c r="H32" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="s">
+      <c r="H32" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="45"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="12"/>
       <c r="E33" s="18"/>
       <c r="F33" s="28"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="18"/>
       <c r="F34" s="28"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="44" t="s">
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1">
+      <c r="B35" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="18"/>
       <c r="F35" s="28"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
+      <c r="H35" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1">
+      <c r="B36" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="18"/>
       <c r="F36" s="28"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="s">
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1">
+      <c r="B37" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="18"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44" t="s">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
+      <c r="B38" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="18"/>
       <c r="F38" s="28"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="H38" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
       <c r="O38" s="31"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="44" t="s">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
+      <c r="B39" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="18"/>
       <c r="F39" s="28"/>
-      <c r="H39" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="D40" s="13"/>
       <c r="E40" s="18"/>
       <c r="F40" s="28"/>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-    </row>
-    <row r="41" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+    </row>
+    <row r="41" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A41" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="18"/>
       <c r="F41" s="28"/>
       <c r="G41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="E42" s="18"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
+      <c r="G42" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
       <c r="N42" s="30"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="46" t="s">
+    <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1">
+      <c r="B43" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="18"/>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46" t="s">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
+      <c r="B44" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="18"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="42"/>
-      <c r="I44" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="66"/>
+      <c r="I44" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="18"/>
       <c r="F45" s="28"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="E46" s="18"/>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-    </row>
-    <row r="47" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+    </row>
+    <row r="47" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A47" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="15"/>
       <c r="E47" s="18"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="42"/>
-      <c r="I47" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="66"/>
+      <c r="I47" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="E48" s="18"/>
       <c r="F48" s="28"/>
-      <c r="H48" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
+      <c r="H48" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A49" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
       <c r="E49" s="18"/>
       <c r="F49" s="28"/>
-      <c r="H49" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-    </row>
-    <row r="50" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
+      <c r="H49" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+    </row>
+    <row r="50" spans="1:15" ht="27" customHeight="1">
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="18"/>
       <c r="F50" s="28"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="18"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-    </row>
-    <row r="52" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="70"/>
+      <c r="I51" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+    </row>
+    <row r="52" spans="1:15" ht="8.25" customHeight="1">
       <c r="E52" s="18"/>
       <c r="F52" s="33"/>
       <c r="G52" s="25"/>
@@ -2042,7 +2042,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="25" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2059,47 +2059,79 @@
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="F54" s="28"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="F55" s="28"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="F56" s="28"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="F57" s="28"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="F58" s="28"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="F59" s="28"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="F60" s="28"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="F61" s="28"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="F62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H33:O34"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="I47:O47"/>
+    <mergeCell ref="A49:D51"/>
+    <mergeCell ref="H45:O46"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="H49:N50"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="I44:O44"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:C12"/>
     <mergeCell ref="G37:N37"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2116,50 +2148,18 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="I44:O44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="I47:O47"/>
-    <mergeCell ref="A49:D51"/>
-    <mergeCell ref="H45:O46"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="H49:N50"/>
-    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H33:O34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G21:J21" r:id="rId1" display="http://rombt.free.nf/"/>

--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>http://rombt.free.nf/</t>
-  </si>
-  <si>
-    <t>http://impexmash.free.nf/</t>
   </si>
   <si>
     <t>horizontal-menus</t>
@@ -397,6 +394,9 @@
   <si>
     <t>junior веб-розробник</t>
   </si>
+  <si>
+    <t>https://impexmash.com/</t>
+  </si>
 </sst>
 </file>
 
@@ -635,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -712,112 +712,115 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:O15"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1131,31 +1134,31 @@
       <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A2" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="18"/>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="19"/>
       <c r="F3" s="28"/>
-      <c r="H3" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+      <c r="H3" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1">
@@ -1165,38 +1168,38 @@
       <c r="D4" s="34"/>
       <c r="E4" s="20"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="20"/>
       <c r="F5" s="28"/>
-      <c r="H5" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="20"/>
       <c r="F6" s="28"/>
       <c r="H6" s="6"/>
@@ -1207,101 +1210,101 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="3" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="19"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
+      <c r="G7" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="18"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
-      <c r="A9" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="A9" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="65"/>
       <c r="D10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
+      <c r="G10" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A11" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
       <c r="E11" s="21"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="15"/>
       <c r="E12" s="22"/>
       <c r="F12" s="28"/>
@@ -1313,193 +1316,193 @@
       <c r="D13" s="17"/>
       <c r="E13" s="22"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="G13" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="3"/>
       <c r="E14" s="18"/>
       <c r="F14" s="28"/>
-      <c r="H14" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
+      <c r="H14" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="24"/>
       <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="3"/>
       <c r="E15" s="18"/>
       <c r="F15" s="28"/>
-      <c r="H15" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+      <c r="H15" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="44"/>
+      <c r="B16" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="62"/>
       <c r="D16" s="3"/>
       <c r="E16" s="18"/>
       <c r="F16" s="28"/>
-      <c r="H16" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="H16" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="31"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="3"/>
       <c r="E17" s="18"/>
       <c r="F17" s="28"/>
-      <c r="H17" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="H17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="31"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1">
       <c r="B18" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="3"/>
       <c r="E18" s="18"/>
       <c r="F18" s="28"/>
-      <c r="H18" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="H18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="31"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="3"/>
       <c r="E19" s="18"/>
       <c r="F19" s="28"/>
-      <c r="H19" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="H19" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="24"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
       <c r="F20" s="28"/>
-      <c r="H20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
+      <c r="H20" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="24"/>
     </row>
     <row r="21" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B21" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="44"/>
+      <c r="B21" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="62"/>
       <c r="D21" s="3"/>
       <c r="E21" s="18"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18"/>
       <c r="F22" s="8"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="H22" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1">
       <c r="B23" s="12" t="s">
@@ -1511,17 +1514,17 @@
       <c r="F23" s="8"/>
       <c r="G23" s="28"/>
       <c r="H23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="I23" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="12" t="s">
@@ -1532,33 +1535,33 @@
       <c r="E24" s="18"/>
       <c r="F24" s="8"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
+      <c r="H24" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B25" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="B25" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="18"/>
       <c r="F25" s="8"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="H25" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -1572,16 +1575,16 @@
       <c r="E26" s="18"/>
       <c r="F26" s="8"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
+      <c r="H26" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1">
       <c r="B27" s="12" t="s">
@@ -1592,16 +1595,16 @@
       <c r="E27" s="18"/>
       <c r="F27" s="28"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
+      <c r="H27" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
@@ -1612,14 +1615,14 @@
       <c r="E28" s="18"/>
       <c r="F28" s="28"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" customHeight="1">
       <c r="B29" s="12" t="s">
@@ -1630,16 +1633,16 @@
       <c r="E29" s="18"/>
       <c r="F29" s="28"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
+      <c r="H29" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1">
       <c r="B30" s="12" t="s">
@@ -1650,16 +1653,16 @@
       <c r="E30" s="18"/>
       <c r="F30" s="28"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
+      <c r="H30" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1">
       <c r="B31" s="46" t="s">
@@ -1669,16 +1672,16 @@
       <c r="D31" s="46"/>
       <c r="E31" s="18"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
+      <c r="G31" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1">
       <c r="B32" s="46" t="s">
@@ -1687,35 +1690,35 @@
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
       <c r="E32" s="18"/>
-      <c r="H32" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
+      <c r="H32" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="B33" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="46"/>
       <c r="D33" s="12"/>
       <c r="E33" s="18"/>
       <c r="F33" s="28"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="H33" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="B34" s="12"/>
@@ -1724,189 +1727,189 @@
       <c r="E34" s="18"/>
       <c r="F34" s="28"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
-      <c r="B35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
+      <c r="B35" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="18"/>
       <c r="F35" s="28"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
+      <c r="H35" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1">
       <c r="B36" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
       <c r="E36" s="18"/>
       <c r="F36" s="28"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="H36" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="B37" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
       <c r="E37" s="18"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
+      <c r="G37" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
       <c r="O37" s="31"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
-      <c r="B38" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
+      <c r="B38" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="18"/>
       <c r="F38" s="28"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="H38" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
       <c r="O38" s="31"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1">
-      <c r="B39" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="B39" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="18"/>
       <c r="F39" s="28"/>
-      <c r="H39" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="H39" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="D40" s="13"/>
       <c r="E40" s="18"/>
       <c r="F40" s="28"/>
-      <c r="H40" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
+      <c r="H40" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
     </row>
     <row r="41" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A41" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
+      <c r="A41" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="18"/>
       <c r="F41" s="28"/>
       <c r="G41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="E42" s="18"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
+      <c r="G42" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
       <c r="N42" s="30"/>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1">
-      <c r="B43" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
+      <c r="B43" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="18"/>
       <c r="F43" s="28"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
-      <c r="B44" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
+      <c r="B44" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="18"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
+      <c r="G44" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="44"/>
+      <c r="I44" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="B45" s="10"/>
@@ -1915,120 +1918,120 @@
       <c r="E45" s="18"/>
       <c r="F45" s="28"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
+      <c r="H45" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="E46" s="18"/>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
     </row>
     <row r="47" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A47" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="15"/>
       <c r="E47" s="18"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="66"/>
-      <c r="I47" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
+      <c r="G47" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
     </row>
     <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="E48" s="18"/>
       <c r="F48" s="28"/>
-      <c r="H48" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
+      <c r="H48" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A49" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
+      <c r="A49" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="18"/>
       <c r="F49" s="28"/>
-      <c r="H49" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
+      <c r="H49" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
     </row>
     <row r="50" spans="1:15" ht="27" customHeight="1">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="18"/>
       <c r="F50" s="28"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="69"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="18"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="70"/>
-      <c r="I51" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
+      <c r="G51" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
     </row>
     <row r="52" spans="1:15" ht="8.25" customHeight="1">
       <c r="E52" s="18"/>
@@ -2088,50 +2091,18 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="I47:O47"/>
-    <mergeCell ref="A49:D51"/>
-    <mergeCell ref="H45:O46"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="H49:N50"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="I44:O44"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H33:O34"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
     <mergeCell ref="G37:N37"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2148,18 +2119,50 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H33:O34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="I44:O44"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="I47:O47"/>
+    <mergeCell ref="A49:D51"/>
+    <mergeCell ref="H45:O46"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="H49:N50"/>
+    <mergeCell ref="H48:O48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G21:J21" r:id="rId1" display="http://rombt.free.nf/"/>
@@ -2171,8 +2174,9 @@
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A10:B10" r:id="rId8" display="GitHub"/>
     <hyperlink ref="D10" r:id="rId9" display="LinkiDin"/>
+    <hyperlink ref="G37:N37" r:id="rId10" display="https://impexmash.com/"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман wordpress js-html-css.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\conspectus\Фриланс\Резюме\level_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conspectus\Фриланс\Резюме\level_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -367,10 +367,6 @@
     <t xml:space="preserve">Досвід:   </t>
   </si>
   <si>
-    <t xml:space="preserve">Проєкти:    
-</t>
-  </si>
-  <si>
     <t>2016 і досі</t>
   </si>
   <si>
@@ -396,12 +392,15 @@
   </si>
   <si>
     <t>https://impexmash.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проєкти: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -712,9 +711,101 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -730,102 +821,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,7 +842,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -881,7 +880,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -953,7 +952,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1105,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:N39"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1134,31 +1133,31 @@
       <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="18"/>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A3" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="19"/>
       <c r="F3" s="28"/>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1">
@@ -1168,38 +1167,38 @@
       <c r="D4" s="34"/>
       <c r="E4" s="20"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="20"/>
       <c r="F5" s="28"/>
-      <c r="H5" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="H5" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="20"/>
       <c r="F6" s="28"/>
       <c r="H6" s="6"/>
@@ -1210,101 +1209,101 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="3" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="19"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="18"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
-      <c r="A9" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
+      <c r="A9" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="53"/>
       <c r="D10" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="G10" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A11" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="E11" s="21"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="15"/>
       <c r="E12" s="22"/>
       <c r="F12" s="28"/>
@@ -1316,173 +1315,173 @@
       <c r="D13" s="17"/>
       <c r="E13" s="22"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="3"/>
       <c r="E14" s="18"/>
       <c r="F14" s="28"/>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="24"/>
       <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="3"/>
       <c r="E15" s="18"/>
       <c r="F15" s="28"/>
-      <c r="H15" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
+      <c r="H15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
       <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="3"/>
       <c r="E16" s="18"/>
       <c r="F16" s="28"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="31"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="3"/>
       <c r="E17" s="18"/>
       <c r="F17" s="28"/>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="31"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="3"/>
       <c r="E18" s="18"/>
       <c r="F18" s="28"/>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="31"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3"/>
       <c r="E19" s="18"/>
       <c r="F19" s="28"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="24"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
       <c r="F20" s="28"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="24"/>
     </row>
     <row r="21" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="3"/>
       <c r="E21" s="18"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
@@ -1493,16 +1492,16 @@
       <c r="E22" s="18"/>
       <c r="F22" s="8"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1">
       <c r="B23" s="12" t="s">
@@ -1516,15 +1515,15 @@
       <c r="H23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="12" t="s">
@@ -1535,33 +1534,33 @@
       <c r="E24" s="18"/>
       <c r="F24" s="8"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="18"/>
       <c r="F25" s="8"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
+      <c r="H25" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -1575,16 +1574,16 @@
       <c r="E26" s="18"/>
       <c r="F26" s="8"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1">
       <c r="B27" s="12" t="s">
@@ -1595,16 +1594,16 @@
       <c r="E27" s="18"/>
       <c r="F27" s="28"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
@@ -1615,14 +1614,14 @@
       <c r="E28" s="18"/>
       <c r="F28" s="28"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" customHeight="1">
       <c r="B29" s="12" t="s">
@@ -1633,16 +1632,16 @@
       <c r="E29" s="18"/>
       <c r="F29" s="28"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1">
       <c r="B30" s="12" t="s">
@@ -1653,72 +1652,72 @@
       <c r="E30" s="18"/>
       <c r="F30" s="28"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="18"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="18"/>
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="12"/>
       <c r="E33" s="18"/>
       <c r="F33" s="28"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="B34" s="12"/>
@@ -1727,189 +1726,189 @@
       <c r="E34" s="18"/>
       <c r="F34" s="28"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="18"/>
       <c r="F35" s="28"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="42" t="s">
+      <c r="H35" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="18"/>
       <c r="F36" s="28"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="71" t="s">
+      <c r="H36" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="18"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
+      <c r="G37" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
       <c r="O37" s="31"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="18"/>
       <c r="F38" s="28"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
       <c r="O38" s="31"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="18"/>
       <c r="F39" s="28"/>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="D40" s="13"/>
       <c r="E40" s="18"/>
       <c r="F40" s="28"/>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
     </row>
     <row r="41" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="18"/>
       <c r="F41" s="28"/>
       <c r="G41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="E42" s="18"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
       <c r="N42" s="30"/>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" thickTop="1">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="18"/>
       <c r="F43" s="28"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="18"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="44"/>
-      <c r="I44" s="49" t="s">
+      <c r="G44" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="67"/>
+      <c r="I44" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="B45" s="10"/>
@@ -1918,120 +1917,120 @@
       <c r="E45" s="18"/>
       <c r="F45" s="28"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="E46" s="18"/>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="15"/>
       <c r="E47" s="18"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="37" t="s">
+      <c r="H47" s="67"/>
+      <c r="I47" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="E48" s="18"/>
       <c r="F48" s="28"/>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="18"/>
       <c r="F49" s="28"/>
-      <c r="H49" s="37" t="s">
+      <c r="H49" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="27" customHeight="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="18"/>
       <c r="F50" s="28"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="18"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="39" t="s">
+      <c r="G51" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="40" t="s">
+      <c r="H51" s="71"/>
+      <c r="I51" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
     </row>
     <row r="52" spans="1:15" ht="8.25" customHeight="1">
       <c r="E52" s="18"/>
@@ -2091,18 +2090,50 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H33:O34"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="I47:O47"/>
+    <mergeCell ref="A49:D51"/>
+    <mergeCell ref="H45:O46"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="H49:N50"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="I44:O44"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:C12"/>
     <mergeCell ref="G37:N37"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2119,50 +2150,18 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="I44:O44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="I47:O47"/>
-    <mergeCell ref="A49:D51"/>
-    <mergeCell ref="H45:O46"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="H49:N50"/>
-    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H33:O34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G21:J21" r:id="rId1" display="http://rombt.free.nf/"/>
